--- a/Code/Results/Cases/Case_5_221/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_221/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.949826850131871</v>
+        <v>0.716448177483187</v>
       </c>
       <c r="C2">
-        <v>0.5120317686499618</v>
+        <v>0.1654998379516996</v>
       </c>
       <c r="D2">
-        <v>0.1206313718533849</v>
+        <v>0.1997473665260401</v>
       </c>
       <c r="E2">
-        <v>0.08094518267501627</v>
+        <v>0.1554444581064942</v>
       </c>
       <c r="F2">
-        <v>0.726768761444319</v>
+        <v>1.203585321672399</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2338339341253111</v>
+        <v>0.5308228575646865</v>
       </c>
       <c r="J2">
-        <v>0.07546730077649144</v>
+        <v>0.1612949153980807</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.589469418673005</v>
+        <v>0.3300329971830394</v>
       </c>
       <c r="N2">
-        <v>0.7058058230693405</v>
+        <v>1.185044160131305</v>
       </c>
       <c r="O2">
-        <v>1.668609643569482</v>
+        <v>2.763206647604335</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.695492582490999</v>
+        <v>0.6398855889804906</v>
       </c>
       <c r="C3">
-        <v>0.4459572317625771</v>
+        <v>0.145388895777586</v>
       </c>
       <c r="D3">
-        <v>0.1108631412868206</v>
+        <v>0.1980223503761849</v>
       </c>
       <c r="E3">
-        <v>0.0763674939426835</v>
+        <v>0.15520883428999</v>
       </c>
       <c r="F3">
-        <v>0.6827402953906017</v>
+        <v>1.202166773392378</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2338701254573792</v>
+        <v>0.5359569668228801</v>
       </c>
       <c r="J3">
-        <v>0.07297972864930458</v>
+        <v>0.1618627829399131</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5138593932535542</v>
+        <v>0.3090634346379275</v>
       </c>
       <c r="N3">
-        <v>0.7256881746939357</v>
+        <v>1.19461734461435</v>
       </c>
       <c r="O3">
-        <v>1.574116132700283</v>
+        <v>2.763768563917949</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.539503188206481</v>
+        <v>0.5928852870376033</v>
       </c>
       <c r="C4">
-        <v>0.4054251229430008</v>
+        <v>0.1330184562545753</v>
       </c>
       <c r="D4">
-        <v>0.1049585559905992</v>
+        <v>0.1970311934770166</v>
       </c>
       <c r="E4">
-        <v>0.07366108440920982</v>
+        <v>0.1551299897060936</v>
       </c>
       <c r="F4">
-        <v>0.6571000960021678</v>
+        <v>1.202008855747728</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2345583305261059</v>
+        <v>0.5394442511005373</v>
       </c>
       <c r="J4">
-        <v>0.07158938702292872</v>
+        <v>0.162290088694089</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4676363577165006</v>
+        <v>0.2962820982477652</v>
       </c>
       <c r="N4">
-        <v>0.7388454373179911</v>
+        <v>1.200953084107304</v>
       </c>
       <c r="O4">
-        <v>1.519755235597842</v>
+        <v>2.765888525533626</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.475960207227871</v>
+        <v>0.5737358378642625</v>
       </c>
       <c r="C5">
-        <v>0.3889118008027594</v>
+        <v>0.1279720694125501</v>
       </c>
       <c r="D5">
-        <v>0.1025745440296646</v>
+        <v>0.1966444599936565</v>
       </c>
       <c r="E5">
-        <v>0.07258315744916999</v>
+        <v>0.1551144391353318</v>
       </c>
       <c r="F5">
-        <v>0.6469821396991478</v>
+        <v>1.202123802510435</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2349984353199481</v>
+        <v>0.5409494834177337</v>
       </c>
       <c r="J5">
-        <v>0.07105564128543662</v>
+        <v>0.1624839963425941</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.448843268403138</v>
+        <v>0.2910975748828619</v>
       </c>
       <c r="N5">
-        <v>0.7444389300221772</v>
+        <v>1.203650151577342</v>
       </c>
       <c r="O5">
-        <v>1.498469796634282</v>
+        <v>2.767198470183587</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.465409843404842</v>
+        <v>0.5705563360137091</v>
       </c>
       <c r="C6">
-        <v>0.3861698485545446</v>
+        <v>0.1271338063328926</v>
       </c>
       <c r="D6">
-        <v>0.1021799828998979</v>
+        <v>0.1965812823203734</v>
       </c>
       <c r="E6">
-        <v>0.07240563979611636</v>
+        <v>0.1551128590834594</v>
       </c>
       <c r="F6">
-        <v>0.6453214707024415</v>
+        <v>1.20215371832758</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2350809357232606</v>
+        <v>0.5412045052602963</v>
       </c>
       <c r="J6">
-        <v>0.07096894990012714</v>
+        <v>0.1625173891744573</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4457250844853817</v>
+        <v>0.2902381462740706</v>
       </c>
       <c r="N6">
-        <v>0.7453815294028843</v>
+        <v>1.204104958324194</v>
       </c>
       <c r="O6">
-        <v>1.494986237346183</v>
+        <v>2.767442917219853</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.538646153245679</v>
+        <v>0.5926270149053039</v>
       </c>
       <c r="C7">
-        <v>0.4052024102234952</v>
+        <v>0.1329504201617056</v>
       </c>
       <c r="D7">
-        <v>0.1049263162978704</v>
+        <v>0.1970259082370731</v>
       </c>
       <c r="E7">
-        <v>0.07364644769658568</v>
+        <v>0.1551297128223581</v>
       </c>
       <c r="F7">
-        <v>0.6569623283972632</v>
+        <v>1.202009679997076</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2345636295488518</v>
+        <v>0.5394642106384282</v>
       </c>
       <c r="J7">
-        <v>0.07158205791063921</v>
+        <v>0.1622926237174163</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4673827424400159</v>
+        <v>0.2962120804503385</v>
       </c>
       <c r="N7">
-        <v>0.7389199434641895</v>
+        <v>1.200988991127971</v>
       </c>
       <c r="O7">
-        <v>1.519464730002511</v>
+        <v>2.765904386270563</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.862084331706086</v>
+        <v>0.6900481235524296</v>
       </c>
       <c r="C8">
-        <v>0.4892378393959973</v>
+        <v>0.1585703508069685</v>
       </c>
       <c r="D8">
-        <v>0.1172431664806055</v>
+        <v>0.1991385061598976</v>
       </c>
       <c r="E8">
-        <v>0.07934435935057849</v>
+        <v>0.1553495672339871</v>
       </c>
       <c r="F8">
-        <v>0.7112863228160151</v>
+        <v>1.202948197420788</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2337033712808143</v>
+        <v>0.5325235358344607</v>
       </c>
       <c r="J8">
-        <v>0.07458013739947944</v>
+        <v>0.161474398175649</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5633524755812971</v>
+        <v>0.3227833566020166</v>
       </c>
       <c r="N8">
-        <v>0.7124599221358068</v>
+        <v>1.18825004005302</v>
       </c>
       <c r="O8">
-        <v>1.63523627962914</v>
+        <v>2.763031829793562</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.498687628239168</v>
+        <v>0.881122895651913</v>
       </c>
       <c r="C9">
-        <v>0.6546149637041196</v>
+        <v>0.2086254696966705</v>
       </c>
       <c r="D9">
-        <v>0.1421973025077534</v>
+        <v>0.2038182534638366</v>
       </c>
       <c r="E9">
-        <v>0.09140673857148229</v>
+        <v>0.1563020753516291</v>
       </c>
       <c r="F9">
-        <v>0.82981830990731</v>
+        <v>1.210448915933384</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2376718716406572</v>
+        <v>0.5215741899957109</v>
       </c>
       <c r="J9">
-        <v>0.0816245755374041</v>
+        <v>0.1604937151413282</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7535230225134484</v>
+        <v>0.3756244571425142</v>
       </c>
       <c r="N9">
-        <v>0.6684347692230403</v>
+        <v>1.166897193856968</v>
       </c>
       <c r="O9">
-        <v>1.893823141000667</v>
+        <v>2.771498834094103</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.969315245425094</v>
+        <v>1.021481722437727</v>
       </c>
       <c r="C10">
-        <v>0.7769074609859672</v>
+        <v>0.2452792984611847</v>
       </c>
       <c r="D10">
-        <v>0.1611120952673417</v>
+        <v>0.2075807410899841</v>
       </c>
       <c r="E10">
-        <v>0.100901604783779</v>
+        <v>0.157318720938239</v>
       </c>
       <c r="F10">
-        <v>0.9256231663383119</v>
+        <v>1.219416372708011</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2445811881518836</v>
+        <v>0.5151576068202992</v>
       </c>
       <c r="J10">
-        <v>0.08762564219612301</v>
+        <v>0.1601536291780192</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8950108734086228</v>
+        <v>0.4148835828581383</v>
       </c>
       <c r="N10">
-        <v>0.6413670821124526</v>
+        <v>1.153415967744955</v>
       </c>
       <c r="O10">
-        <v>2.106793678410781</v>
+        <v>2.786344283632189</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.184408739941262</v>
+        <v>1.085321043901331</v>
       </c>
       <c r="C11">
-        <v>0.8328185434338025</v>
+        <v>0.2619260499060658</v>
       </c>
       <c r="D11">
-        <v>0.1698652100559599</v>
+        <v>0.2093621935763395</v>
       </c>
       <c r="E11">
-        <v>0.105380026336821</v>
+        <v>0.1578498232668082</v>
       </c>
       <c r="F11">
-        <v>0.9714346956194504</v>
+        <v>1.224247958757928</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2487211989336373</v>
+        <v>0.5125932227040941</v>
       </c>
       <c r="J11">
-        <v>0.09056234148930287</v>
+        <v>0.1600815571731289</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9598979345759702</v>
+        <v>0.432836280545061</v>
       </c>
       <c r="N11">
-        <v>0.6303143539545601</v>
+        <v>1.147761183617668</v>
       </c>
       <c r="O11">
-        <v>2.209564380771383</v>
+        <v>2.794977244958176</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.266034772242222</v>
+        <v>1.109492791744287</v>
       </c>
       <c r="C12">
-        <v>0.8540401685960717</v>
+        <v>0.2682256051931233</v>
       </c>
       <c r="D12">
-        <v>0.1732031088869661</v>
+        <v>0.2100467691941077</v>
       </c>
       <c r="E12">
-        <v>0.1071006904065293</v>
+        <v>0.1580607846934647</v>
       </c>
       <c r="F12">
-        <v>0.9891327792137474</v>
+        <v>1.226185793187668</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2504438988875002</v>
+        <v>0.5116732397633683</v>
       </c>
       <c r="J12">
-        <v>0.09170657890332023</v>
+        <v>0.1600661484132218</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9845562724260901</v>
+        <v>0.4396476769409787</v>
       </c>
       <c r="N12">
-        <v>0.6263206157534427</v>
+        <v>1.14568851901582</v>
       </c>
       <c r="O12">
-        <v>2.249407901069816</v>
+        <v>2.798517045200413</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.248446857941587</v>
+        <v>1.104287119217929</v>
       </c>
       <c r="C13">
-        <v>0.8494673655563645</v>
+        <v>0.2668690749957818</v>
       </c>
       <c r="D13">
-        <v>0.1724831653064598</v>
+        <v>0.209898890918538</v>
       </c>
       <c r="E13">
-        <v>0.1067289807592182</v>
+        <v>0.1580149129163608</v>
       </c>
       <c r="F13">
-        <v>0.9853051073107935</v>
+        <v>1.225763632141707</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2500657987549353</v>
+        <v>0.5118691004029614</v>
       </c>
       <c r="J13">
-        <v>0.09145867530904184</v>
+        <v>0.1600689384413627</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9792415914830599</v>
+        <v>0.4381801438148258</v>
       </c>
       <c r="N13">
-        <v>0.6271720395444191</v>
+        <v>1.146131850495415</v>
       </c>
       <c r="O13">
-        <v>2.24078435034761</v>
+        <v>2.797742640936434</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.191120475522496</v>
+        <v>1.087309732006418</v>
       </c>
       <c r="C14">
-        <v>0.8345634161435385</v>
+        <v>0.2624444040992557</v>
       </c>
       <c r="D14">
-        <v>0.1701393429615905</v>
+        <v>0.209418314447305</v>
       </c>
       <c r="E14">
-        <v>0.1055210783807468</v>
+        <v>0.1578669820276311</v>
       </c>
       <c r="F14">
-        <v>0.9728835304665466</v>
+        <v>1.224405216460696</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2488597512934874</v>
+        <v>0.5125165105337857</v>
       </c>
       <c r="J14">
-        <v>0.09065581920817323</v>
+        <v>0.1600800513222325</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9619247764768417</v>
+        <v>0.4333963976941817</v>
       </c>
       <c r="N14">
-        <v>0.6299818826691421</v>
+        <v>1.147589288035945</v>
       </c>
       <c r="O14">
-        <v>2.212823286280781</v>
+        <v>2.795263039308168</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.156030124669712</v>
+        <v>1.076910186882287</v>
       </c>
       <c r="C15">
-        <v>0.8254410218827672</v>
+        <v>0.2597336088314535</v>
       </c>
       <c r="D15">
-        <v>0.1687067752102536</v>
+        <v>0.2091252448615251</v>
       </c>
       <c r="E15">
-        <v>0.1047844893205436</v>
+        <v>0.1577776514281517</v>
       </c>
       <c r="F15">
-        <v>0.9653214860770163</v>
+        <v>1.22358724210919</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2481415522755164</v>
+        <v>0.5129197250847142</v>
       </c>
       <c r="J15">
-        <v>0.09016831187090446</v>
+        <v>0.1600884058616927</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9513294231036653</v>
+        <v>0.4304679106345688</v>
       </c>
       <c r="N15">
-        <v>0.6317282781374516</v>
+        <v>1.148490953553782</v>
       </c>
       <c r="O15">
-        <v>2.195819444685725</v>
+        <v>2.793779474379676</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.955281117570621</v>
+        <v>1.017309348628203</v>
       </c>
       <c r="C16">
-        <v>0.7732599277688053</v>
+        <v>0.244190820921375</v>
       </c>
       <c r="D16">
-        <v>0.1605432101967068</v>
+        <v>0.2074657191061959</v>
       </c>
       <c r="E16">
-        <v>0.1006122911913501</v>
+        <v>0.157285391038279</v>
       </c>
       <c r="F16">
-        <v>0.9226766243808981</v>
+        <v>1.219115758217043</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2443316636627628</v>
+        <v>0.5153323392106337</v>
       </c>
       <c r="J16">
-        <v>0.08743808750566728</v>
+        <v>0.160160002123547</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8907818686006905</v>
+        <v>0.4137121839296967</v>
       </c>
       <c r="N16">
-        <v>0.6421156441406524</v>
+        <v>1.153795134015255</v>
       </c>
       <c r="O16">
-        <v>2.100202554428591</v>
+        <v>2.785817956708058</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.832405933549808</v>
+        <v>0.980742526955737</v>
       </c>
       <c r="C17">
-        <v>0.7413263734933651</v>
+        <v>0.234648636950709</v>
       </c>
       <c r="D17">
-        <v>0.1555745212691022</v>
+        <v>0.2064655012970746</v>
       </c>
       <c r="E17">
-        <v>0.09809485540710483</v>
+        <v>0.1570009649044408</v>
       </c>
       <c r="F17">
-        <v>0.8971068369560129</v>
+        <v>1.216565348463774</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2422577678355964</v>
+        <v>0.5169032870569481</v>
       </c>
       <c r="J17">
-        <v>0.08581782669435256</v>
+        <v>0.1602250892583754</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.85378006064564</v>
+        <v>0.4034567935567921</v>
       </c>
       <c r="N17">
-        <v>0.6488180039829246</v>
+        <v>1.157171446305611</v>
       </c>
       <c r="O17">
-        <v>2.043107943666996</v>
+        <v>2.781415534259168</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.761823777421625</v>
+        <v>0.9597093364208149</v>
       </c>
       <c r="C18">
-        <v>0.7229847674251744</v>
+        <v>0.2291576765717025</v>
       </c>
       <c r="D18">
-        <v>0.1527305356243573</v>
+        <v>0.2058967839044641</v>
       </c>
       <c r="E18">
-        <v>0.09666175266904631</v>
+        <v>0.1568438312565164</v>
       </c>
       <c r="F18">
-        <v>0.8826077174890372</v>
+        <v>1.215169222398089</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2411580120874426</v>
+        <v>0.5178402202562111</v>
       </c>
       <c r="J18">
-        <v>0.08490520320604134</v>
+        <v>0.1602703036012514</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8325461218695409</v>
+        <v>0.3975669880894941</v>
       </c>
       <c r="N18">
-        <v>0.6527910029703747</v>
+        <v>1.159158395587355</v>
       </c>
       <c r="O18">
-        <v>2.010817870884352</v>
+        <v>2.779060279741685</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.737940848007383</v>
+        <v>0.9525877405665142</v>
       </c>
       <c r="C19">
-        <v>0.7167787687182852</v>
+        <v>0.227298102813478</v>
       </c>
       <c r="D19">
-        <v>0.1517699377634898</v>
+        <v>0.2057053584737361</v>
       </c>
       <c r="E19">
-        <v>0.09617902523141808</v>
+        <v>0.1567917388644275</v>
       </c>
       <c r="F19">
-        <v>0.877733410060344</v>
+        <v>1.214708677037876</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2408013019531801</v>
+        <v>0.5181631769639559</v>
       </c>
       <c r="J19">
-        <v>0.08459944917826334</v>
+        <v>0.1602869482541394</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8253646658884506</v>
+        <v>0.3955743273084522</v>
       </c>
       <c r="N19">
-        <v>0.6541561486398706</v>
+        <v>1.159838869798506</v>
       </c>
       <c r="O19">
-        <v>1.999977006152534</v>
+        <v>2.778293202352728</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.845476429508267</v>
+        <v>0.9846352323193628</v>
       </c>
       <c r="C20">
-        <v>0.7447230283906663</v>
+        <v>0.2356646845793762</v>
       </c>
       <c r="D20">
-        <v>0.156101997536453</v>
+        <v>0.2065712955451886</v>
       </c>
       <c r="E20">
-        <v>0.09836128950015066</v>
+        <v>0.1570305740615581</v>
       </c>
       <c r="F20">
-        <v>0.8998070547187069</v>
+        <v>1.216829515842051</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2424688211383703</v>
+        <v>0.5167326029726667</v>
       </c>
       <c r="J20">
-        <v>0.08598829083913984</v>
+        <v>0.1602173556298965</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8577138622445233</v>
+        <v>0.4045475866673414</v>
       </c>
       <c r="N20">
-        <v>0.6480922426358617</v>
+        <v>1.156807376758131</v>
       </c>
       <c r="O20">
-        <v>2.049128360071251</v>
+        <v>2.781865868085788</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.207953623628327</v>
+        <v>1.092296488922841</v>
       </c>
       <c r="C21">
-        <v>0.8389396526848998</v>
+        <v>0.2637441537028451</v>
       </c>
       <c r="D21">
-        <v>0.1708271326239696</v>
+        <v>0.2095592011590099</v>
       </c>
       <c r="E21">
-        <v>0.1058751802114379</v>
+        <v>0.1579101659275466</v>
       </c>
       <c r="F21">
-        <v>0.9765222958643278</v>
+        <v>1.22480127871809</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2492096942945743</v>
+        <v>0.5123249629452182</v>
       </c>
       <c r="J21">
-        <v>0.09089074404317188</v>
+        <v>0.160076464684721</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9670086851693895</v>
+        <v>0.4348011471578488</v>
       </c>
       <c r="N21">
-        <v>0.6291512745500256</v>
+        <v>1.147159339667773</v>
       </c>
       <c r="O21">
-        <v>2.221010320661918</v>
+        <v>2.795984009016337</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.445888259447543</v>
+        <v>1.162642322198735</v>
       </c>
       <c r="C22">
-        <v>0.900807878923672</v>
+        <v>0.2820710478123374</v>
       </c>
       <c r="D22">
-        <v>0.1805875608304177</v>
+        <v>0.2115700984430191</v>
       </c>
       <c r="E22">
-        <v>0.1109313743105922</v>
+        <v>0.1585424003534897</v>
       </c>
       <c r="F22">
-        <v>1.028717021662814</v>
+        <v>1.230642082548584</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2545245037612958</v>
+        <v>0.5097421791049577</v>
       </c>
       <c r="J22">
-        <v>0.09428356943200811</v>
+        <v>0.1600536498057821</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.038952481529712</v>
+        <v>0.4546497892959707</v>
       </c>
       <c r="N22">
-        <v>0.6178949339399367</v>
+        <v>1.141254089850278</v>
       </c>
       <c r="O22">
-        <v>2.338786608622513</v>
+        <v>2.806788968843165</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.318792615078962</v>
+        <v>1.125099410752227</v>
       </c>
       <c r="C23">
-        <v>0.8677576926587562</v>
+        <v>0.2722919912870339</v>
       </c>
       <c r="D23">
-        <v>0.175365063440978</v>
+        <v>0.2104915491313903</v>
       </c>
       <c r="E23">
-        <v>0.1082188195022553</v>
+        <v>0.1581997233864136</v>
       </c>
       <c r="F23">
-        <v>1.000661138110416</v>
+        <v>1.227467002841905</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2516006396590029</v>
+        <v>0.5110933687503731</v>
       </c>
       <c r="J23">
-        <v>0.09245462883501432</v>
+        <v>0.1600594885475246</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.000503636548501</v>
+        <v>0.4440493392536595</v>
       </c>
       <c r="N23">
-        <v>0.6237962951682618</v>
+        <v>1.144369217799529</v>
       </c>
       <c r="O23">
-        <v>2.275401443584002</v>
+        <v>2.800877649405749</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.839567072363309</v>
+        <v>0.9828753726382615</v>
       </c>
       <c r="C24">
-        <v>0.7431873471320216</v>
+        <v>0.2352053450990184</v>
       </c>
       <c r="D24">
-        <v>0.1558634864749138</v>
+        <v>0.206523446271234</v>
       </c>
       <c r="E24">
-        <v>0.0982407905442102</v>
+        <v>0.1570171678661652</v>
       </c>
       <c r="F24">
-        <v>0.8985856615062886</v>
+        <v>1.216709867295975</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.24237311652168</v>
+        <v>0.5168096640494326</v>
       </c>
       <c r="J24">
-        <v>0.0859111653557818</v>
+        <v>0.1602208277230659</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8559352702731147</v>
+        <v>0.404054419903737</v>
       </c>
       <c r="N24">
-        <v>0.648419987211085</v>
+        <v>1.156971829736904</v>
       </c>
       <c r="O24">
-        <v>2.046404871292452</v>
+        <v>2.781661724716372</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.326071694618236</v>
+        <v>0.8294331560998671</v>
       </c>
       <c r="C25">
-        <v>0.6097707270363912</v>
+        <v>0.1951049809730421</v>
       </c>
       <c r="D25">
-        <v>0.1353515900163984</v>
+        <v>0.2024950905911851</v>
       </c>
       <c r="E25">
-        <v>0.08803936345597307</v>
+        <v>0.1559886840671041</v>
       </c>
       <c r="F25">
-        <v>0.7963279927531346</v>
+        <v>1.207813176399512</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.235938544752031</v>
+        <v>0.524250798995098</v>
       </c>
       <c r="J25">
-        <v>0.07958267864028556</v>
+        <v>0.1606922174406762</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7018094339302863</v>
+        <v>0.361252026773208</v>
       </c>
       <c r="N25">
-        <v>0.6794548924727621</v>
+        <v>1.172285828940957</v>
       </c>
       <c r="O25">
-        <v>1.820117789708746</v>
+        <v>2.767695776451205</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_221/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_221/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.716448177483187</v>
+        <v>1.949826850131871</v>
       </c>
       <c r="C2">
-        <v>0.1654998379516996</v>
+        <v>0.512031768649905</v>
       </c>
       <c r="D2">
-        <v>0.1997473665260401</v>
+        <v>0.1206313718533778</v>
       </c>
       <c r="E2">
-        <v>0.1554444581064942</v>
+        <v>0.08094518267503403</v>
       </c>
       <c r="F2">
-        <v>1.203585321672399</v>
+        <v>0.726768761444319</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5308228575646865</v>
+        <v>0.2338339341252933</v>
       </c>
       <c r="J2">
-        <v>0.1612949153980807</v>
+        <v>0.07546730077649144</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3300329971830394</v>
+        <v>0.5894694186729978</v>
       </c>
       <c r="N2">
-        <v>1.185044160131305</v>
+        <v>0.7058058230693902</v>
       </c>
       <c r="O2">
-        <v>2.763206647604335</v>
+        <v>1.668609643569482</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6398855889804906</v>
+        <v>1.695492582490999</v>
       </c>
       <c r="C3">
-        <v>0.145388895777586</v>
+        <v>0.445957231762776</v>
       </c>
       <c r="D3">
-        <v>0.1980223503761849</v>
+        <v>0.1108631412868988</v>
       </c>
       <c r="E3">
-        <v>0.15520883428999</v>
+        <v>0.0763674939426835</v>
       </c>
       <c r="F3">
-        <v>1.202166773392378</v>
+        <v>0.6827402953905946</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5359569668228801</v>
+        <v>0.2338701254573756</v>
       </c>
       <c r="J3">
-        <v>0.1618627829399131</v>
+        <v>0.07297972864936497</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3090634346379275</v>
+        <v>0.5138593932535471</v>
       </c>
       <c r="N3">
-        <v>1.19461734461435</v>
+        <v>0.7256881746939357</v>
       </c>
       <c r="O3">
-        <v>2.763768563917949</v>
+        <v>1.574116132700311</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5928852870376033</v>
+        <v>1.539503188206709</v>
       </c>
       <c r="C4">
-        <v>0.1330184562545753</v>
+        <v>0.4054251229433135</v>
       </c>
       <c r="D4">
-        <v>0.1970311934770166</v>
+        <v>0.1049585559906774</v>
       </c>
       <c r="E4">
-        <v>0.1551299897060936</v>
+        <v>0.07366108440919561</v>
       </c>
       <c r="F4">
-        <v>1.202008855747728</v>
+        <v>0.6571000960021536</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5394442511005373</v>
+        <v>0.2345583305261023</v>
       </c>
       <c r="J4">
-        <v>0.162290088694089</v>
+        <v>0.07158938702302109</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2962820982477652</v>
+        <v>0.4676363577165006</v>
       </c>
       <c r="N4">
-        <v>1.200953084107304</v>
+        <v>0.7388454373179982</v>
       </c>
       <c r="O4">
-        <v>2.765888525533626</v>
+        <v>1.519755235597842</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5737358378642625</v>
+        <v>1.475960207227956</v>
       </c>
       <c r="C5">
-        <v>0.1279720694125501</v>
+        <v>0.3889118008027594</v>
       </c>
       <c r="D5">
-        <v>0.1966444599936565</v>
+        <v>0.1025745440297285</v>
       </c>
       <c r="E5">
-        <v>0.1551144391353318</v>
+        <v>0.07258315744916999</v>
       </c>
       <c r="F5">
-        <v>1.202123802510435</v>
+        <v>0.6469821396991478</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5409494834177337</v>
+        <v>0.2349984353199339</v>
       </c>
       <c r="J5">
-        <v>0.1624839963425941</v>
+        <v>0.07105564128548991</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2910975748828619</v>
+        <v>0.448843268403138</v>
       </c>
       <c r="N5">
-        <v>1.203650151577342</v>
+        <v>0.744438930022163</v>
       </c>
       <c r="O5">
-        <v>2.767198470183587</v>
+        <v>1.498469796634339</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5705563360137091</v>
+        <v>1.4654098434047</v>
       </c>
       <c r="C6">
-        <v>0.1271338063328926</v>
+        <v>0.3861698485544593</v>
       </c>
       <c r="D6">
-        <v>0.1965812823203734</v>
+        <v>0.1021799829000258</v>
       </c>
       <c r="E6">
-        <v>0.1551128590834594</v>
+        <v>0.07240563979611281</v>
       </c>
       <c r="F6">
-        <v>1.20215371832758</v>
+        <v>0.6453214707024699</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5412045052602963</v>
+        <v>0.2350809357232535</v>
       </c>
       <c r="J6">
-        <v>0.1625173891744573</v>
+        <v>0.07096894990012359</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2902381462740706</v>
+        <v>0.4457250844853959</v>
       </c>
       <c r="N6">
-        <v>1.204104958324194</v>
+        <v>0.7453815294028772</v>
       </c>
       <c r="O6">
-        <v>2.767442917219853</v>
+        <v>1.494986237346239</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5926270149053039</v>
+        <v>1.538646153245708</v>
       </c>
       <c r="C7">
-        <v>0.1329504201617056</v>
+        <v>0.4052024102238931</v>
       </c>
       <c r="D7">
-        <v>0.1970259082370731</v>
+        <v>0.1049263162978633</v>
       </c>
       <c r="E7">
-        <v>0.1551297128223581</v>
+        <v>0.07364644769658568</v>
       </c>
       <c r="F7">
-        <v>1.202009679997076</v>
+        <v>0.6569623283972348</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5394642106384282</v>
+        <v>0.2345636295488411</v>
       </c>
       <c r="J7">
-        <v>0.1622926237174163</v>
+        <v>0.07158205791068539</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2962120804503385</v>
+        <v>0.4673827424400088</v>
       </c>
       <c r="N7">
-        <v>1.200988991127971</v>
+        <v>0.7389199434641682</v>
       </c>
       <c r="O7">
-        <v>2.765904386270563</v>
+        <v>1.519464730002539</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6900481235524296</v>
+        <v>1.862084331706086</v>
       </c>
       <c r="C8">
-        <v>0.1585703508069685</v>
+        <v>0.4892378393958836</v>
       </c>
       <c r="D8">
-        <v>0.1991385061598976</v>
+        <v>0.1172431664806126</v>
       </c>
       <c r="E8">
-        <v>0.1553495672339871</v>
+        <v>0.07934435935057849</v>
       </c>
       <c r="F8">
-        <v>1.202948197420788</v>
+        <v>0.7112863228160151</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5325235358344607</v>
+        <v>0.2337033712808072</v>
       </c>
       <c r="J8">
-        <v>0.161474398175649</v>
+        <v>0.07458013739947944</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3227833566020166</v>
+        <v>0.5633524755812971</v>
       </c>
       <c r="N8">
-        <v>1.18825004005302</v>
+        <v>0.7124599221357926</v>
       </c>
       <c r="O8">
-        <v>2.763031829793562</v>
+        <v>1.635236279629112</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.881122895651913</v>
+        <v>2.498687628239281</v>
       </c>
       <c r="C9">
-        <v>0.2086254696966705</v>
+        <v>0.6546149637036933</v>
       </c>
       <c r="D9">
-        <v>0.2038182534638366</v>
+        <v>0.1421973025078813</v>
       </c>
       <c r="E9">
-        <v>0.1563020753516291</v>
+        <v>0.09140673857147874</v>
       </c>
       <c r="F9">
-        <v>1.210448915933384</v>
+        <v>0.82981830990731</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5215741899957109</v>
+        <v>0.2376718716406536</v>
       </c>
       <c r="J9">
-        <v>0.1604937151413282</v>
+        <v>0.08162457553745384</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3756244571425142</v>
+        <v>0.7535230225134484</v>
       </c>
       <c r="N9">
-        <v>1.166897193856968</v>
+        <v>0.6684347692230688</v>
       </c>
       <c r="O9">
-        <v>2.771498834094103</v>
+        <v>1.893823141000667</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.021481722437727</v>
+        <v>2.969315245425094</v>
       </c>
       <c r="C10">
-        <v>0.2452792984611847</v>
+        <v>0.7769074609861661</v>
       </c>
       <c r="D10">
-        <v>0.2075807410899841</v>
+        <v>0.1611120952672422</v>
       </c>
       <c r="E10">
-        <v>0.157318720938239</v>
+        <v>0.1009016047838109</v>
       </c>
       <c r="F10">
-        <v>1.219416372708011</v>
+        <v>0.9256231663383119</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5151576068202992</v>
+        <v>0.2445811881518978</v>
       </c>
       <c r="J10">
-        <v>0.1601536291780192</v>
+        <v>0.08762564219613012</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4148835828581383</v>
+        <v>0.8950108734086371</v>
       </c>
       <c r="N10">
-        <v>1.153415967744955</v>
+        <v>0.6413670821124526</v>
       </c>
       <c r="O10">
-        <v>2.786344283632189</v>
+        <v>2.106793678410781</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.085321043901331</v>
+        <v>3.184408739941318</v>
       </c>
       <c r="C11">
-        <v>0.2619260499060658</v>
+        <v>0.832818543433774</v>
       </c>
       <c r="D11">
-        <v>0.2093621935763395</v>
+        <v>0.1698652100562867</v>
       </c>
       <c r="E11">
-        <v>0.1578498232668082</v>
+        <v>0.105380026336789</v>
       </c>
       <c r="F11">
-        <v>1.224247958757928</v>
+        <v>0.9714346956194504</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5125932227040941</v>
+        <v>0.2487211989336338</v>
       </c>
       <c r="J11">
-        <v>0.1600815571731289</v>
+        <v>0.09056234148939524</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.432836280545061</v>
+        <v>0.9598979345759702</v>
       </c>
       <c r="N11">
-        <v>1.147761183617668</v>
+        <v>0.6303143539546099</v>
       </c>
       <c r="O11">
-        <v>2.794977244958176</v>
+        <v>2.209564380771297</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.109492791744287</v>
+        <v>3.266034772242108</v>
       </c>
       <c r="C12">
-        <v>0.2682256051931233</v>
+        <v>0.8540401685960717</v>
       </c>
       <c r="D12">
-        <v>0.2100467691941077</v>
+        <v>0.1732031088870372</v>
       </c>
       <c r="E12">
-        <v>0.1580607846934647</v>
+        <v>0.1071006904065293</v>
       </c>
       <c r="F12">
-        <v>1.226185793187668</v>
+        <v>0.989132779213719</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5116732397633683</v>
+        <v>0.2504438988875108</v>
       </c>
       <c r="J12">
-        <v>0.1600661484132218</v>
+        <v>0.09170657890334155</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4396476769409787</v>
+        <v>0.9845562724260972</v>
       </c>
       <c r="N12">
-        <v>1.14568851901582</v>
+        <v>0.6263206157534498</v>
       </c>
       <c r="O12">
-        <v>2.798517045200413</v>
+        <v>2.249407901069844</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.104287119217929</v>
+        <v>3.248446857941474</v>
       </c>
       <c r="C13">
-        <v>0.2668690749957818</v>
+        <v>0.8494673655563076</v>
       </c>
       <c r="D13">
-        <v>0.209898890918538</v>
+        <v>0.1724831653063887</v>
       </c>
       <c r="E13">
-        <v>0.1580149129163608</v>
+        <v>0.1067289807592111</v>
       </c>
       <c r="F13">
-        <v>1.225763632141707</v>
+        <v>0.9853051073107935</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5118691004029614</v>
+        <v>0.2500657987549069</v>
       </c>
       <c r="J13">
-        <v>0.1600689384413627</v>
+        <v>0.09145867530903473</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4381801438148258</v>
+        <v>0.9792415914830315</v>
       </c>
       <c r="N13">
-        <v>1.146131850495415</v>
+        <v>0.6271720395444831</v>
       </c>
       <c r="O13">
-        <v>2.797742640936434</v>
+        <v>2.240784350347667</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.087309732006418</v>
+        <v>3.191120475522439</v>
       </c>
       <c r="C14">
-        <v>0.2624444040992557</v>
+        <v>0.8345634161433964</v>
       </c>
       <c r="D14">
-        <v>0.209418314447305</v>
+        <v>0.1701393429618037</v>
       </c>
       <c r="E14">
-        <v>0.1578669820276311</v>
+        <v>0.1055210783807397</v>
       </c>
       <c r="F14">
-        <v>1.224405216460696</v>
+        <v>0.9728835304665324</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5125165105337857</v>
+        <v>0.2488597512934838</v>
       </c>
       <c r="J14">
-        <v>0.1600800513222325</v>
+        <v>0.09065581920816612</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4333963976941817</v>
+        <v>0.9619247764768488</v>
       </c>
       <c r="N14">
-        <v>1.147589288035945</v>
+        <v>0.6299818826691848</v>
       </c>
       <c r="O14">
-        <v>2.795263039308168</v>
+        <v>2.212823286280781</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.076910186882287</v>
+        <v>3.156030124669712</v>
       </c>
       <c r="C15">
-        <v>0.2597336088314535</v>
+        <v>0.8254410218825114</v>
       </c>
       <c r="D15">
-        <v>0.2091252448615251</v>
+        <v>0.1687067752102536</v>
       </c>
       <c r="E15">
-        <v>0.1577776514281517</v>
+        <v>0.1047844893205614</v>
       </c>
       <c r="F15">
-        <v>1.22358724210919</v>
+        <v>0.9653214860770305</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5129197250847142</v>
+        <v>0.2481415522754986</v>
       </c>
       <c r="J15">
-        <v>0.1600884058616927</v>
+        <v>0.09016831187094709</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4304679106345688</v>
+        <v>0.9513294231036795</v>
       </c>
       <c r="N15">
-        <v>1.148490953553782</v>
+        <v>0.6317282781374445</v>
       </c>
       <c r="O15">
-        <v>2.793779474379676</v>
+        <v>2.195819444685696</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.017309348628203</v>
+        <v>2.955281117570564</v>
       </c>
       <c r="C16">
-        <v>0.244190820921375</v>
+        <v>0.7732599277690042</v>
       </c>
       <c r="D16">
-        <v>0.2074657191061959</v>
+        <v>0.1605432101964652</v>
       </c>
       <c r="E16">
-        <v>0.157285391038279</v>
+        <v>0.1006122911913501</v>
       </c>
       <c r="F16">
-        <v>1.219115758217043</v>
+        <v>0.9226766243809124</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5153323392106337</v>
+        <v>0.2443316636627628</v>
       </c>
       <c r="J16">
-        <v>0.160160002123547</v>
+        <v>0.08743808750571702</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4137121839296967</v>
+        <v>0.8907818686006976</v>
       </c>
       <c r="N16">
-        <v>1.153795134015255</v>
+        <v>0.6421156441406453</v>
       </c>
       <c r="O16">
-        <v>2.785817956708058</v>
+        <v>2.100202554428591</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.980742526955737</v>
+        <v>2.832405933549865</v>
       </c>
       <c r="C17">
-        <v>0.234648636950709</v>
+        <v>0.7413263734931093</v>
       </c>
       <c r="D17">
-        <v>0.2064655012970746</v>
+        <v>0.1555745212691164</v>
       </c>
       <c r="E17">
-        <v>0.1570009649044408</v>
+        <v>0.09809485540710128</v>
       </c>
       <c r="F17">
-        <v>1.216565348463774</v>
+        <v>0.8971068369560129</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5169032870569481</v>
+        <v>0.2422577678355822</v>
       </c>
       <c r="J17">
-        <v>0.1602250892583754</v>
+        <v>0.0858178266942744</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4034567935567921</v>
+        <v>0.8537800606456329</v>
       </c>
       <c r="N17">
-        <v>1.157171446305611</v>
+        <v>0.6488180039828606</v>
       </c>
       <c r="O17">
-        <v>2.781415534259168</v>
+        <v>2.043107943666996</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9597093364208149</v>
+        <v>2.761823777421853</v>
       </c>
       <c r="C18">
-        <v>0.2291576765717025</v>
+        <v>0.7229847674254302</v>
       </c>
       <c r="D18">
-        <v>0.2058967839044641</v>
+        <v>0.152730535624471</v>
       </c>
       <c r="E18">
-        <v>0.1568438312565164</v>
+        <v>0.09666175266902854</v>
       </c>
       <c r="F18">
-        <v>1.215169222398089</v>
+        <v>0.8826077174890372</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5178402202562111</v>
+        <v>0.2411580120874426</v>
       </c>
       <c r="J18">
-        <v>0.1602703036012514</v>
+        <v>0.08490520320609818</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3975669880894941</v>
+        <v>0.8325461218695338</v>
       </c>
       <c r="N18">
-        <v>1.159158395587355</v>
+        <v>0.6527910029703747</v>
       </c>
       <c r="O18">
-        <v>2.779060279741685</v>
+        <v>2.010817870884352</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9525877405665142</v>
+        <v>2.73794084800727</v>
       </c>
       <c r="C19">
-        <v>0.227298102813478</v>
+        <v>0.7167787687182852</v>
       </c>
       <c r="D19">
-        <v>0.2057053584737361</v>
+        <v>0.1517699377633761</v>
       </c>
       <c r="E19">
-        <v>0.1567917388644275</v>
+        <v>0.09617902523141808</v>
       </c>
       <c r="F19">
-        <v>1.214708677037876</v>
+        <v>0.877733410060344</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5181631769639559</v>
+        <v>0.2408013019531836</v>
       </c>
       <c r="J19">
-        <v>0.1602869482541394</v>
+        <v>0.08459944917829887</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3955743273084522</v>
+        <v>0.8253646658884506</v>
       </c>
       <c r="N19">
-        <v>1.159838869798506</v>
+        <v>0.6541561486398706</v>
       </c>
       <c r="O19">
-        <v>2.778293202352728</v>
+        <v>1.999977006152534</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9846352323193628</v>
+        <v>2.845476429508324</v>
       </c>
       <c r="C20">
-        <v>0.2356646845793762</v>
+        <v>0.7447230283906663</v>
       </c>
       <c r="D20">
-        <v>0.2065712955451886</v>
+        <v>0.156101997536453</v>
       </c>
       <c r="E20">
-        <v>0.1570305740615581</v>
+        <v>0.09836128950017198</v>
       </c>
       <c r="F20">
-        <v>1.216829515842051</v>
+        <v>0.8998070547186927</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5167326029726667</v>
+        <v>0.2424688211383845</v>
       </c>
       <c r="J20">
-        <v>0.1602173556298965</v>
+        <v>0.08598829083918957</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4045475866673414</v>
+        <v>0.8577138622445233</v>
       </c>
       <c r="N20">
-        <v>1.156807376758131</v>
+        <v>0.6480922426358404</v>
       </c>
       <c r="O20">
-        <v>2.781865868085788</v>
+        <v>2.049128360071307</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.092296488922841</v>
+        <v>3.207953623628271</v>
       </c>
       <c r="C21">
-        <v>0.2637441537028451</v>
+        <v>0.8389396526846724</v>
       </c>
       <c r="D21">
-        <v>0.2095592011590099</v>
+        <v>0.1708271326237139</v>
       </c>
       <c r="E21">
-        <v>0.1579101659275466</v>
+        <v>0.1058751802114557</v>
       </c>
       <c r="F21">
-        <v>1.22480127871809</v>
+        <v>0.9765222958643278</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5123249629452182</v>
+        <v>0.2492096942945636</v>
       </c>
       <c r="J21">
-        <v>0.160076464684721</v>
+        <v>0.09089074404316477</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4348011471578488</v>
+        <v>0.9670086851693966</v>
       </c>
       <c r="N21">
-        <v>1.147159339667773</v>
+        <v>0.6291512745500256</v>
       </c>
       <c r="O21">
-        <v>2.795984009016337</v>
+        <v>2.22101032066189</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.162642322198735</v>
+        <v>3.445888259447486</v>
       </c>
       <c r="C22">
-        <v>0.2820710478123374</v>
+        <v>0.900807878923672</v>
       </c>
       <c r="D22">
-        <v>0.2115700984430191</v>
+        <v>0.1805875608304177</v>
       </c>
       <c r="E22">
-        <v>0.1585424003534897</v>
+        <v>0.1109313743105815</v>
       </c>
       <c r="F22">
-        <v>1.230642082548584</v>
+        <v>1.0287170216628</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5097421791049577</v>
+        <v>0.2545245037612993</v>
       </c>
       <c r="J22">
-        <v>0.1600536498057821</v>
+        <v>0.09428356943200811</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4546497892959707</v>
+        <v>1.038952481529726</v>
       </c>
       <c r="N22">
-        <v>1.141254089850278</v>
+        <v>0.6178949339399296</v>
       </c>
       <c r="O22">
-        <v>2.806788968843165</v>
+        <v>2.338786608622513</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.125099410752227</v>
+        <v>3.318792615079133</v>
       </c>
       <c r="C23">
-        <v>0.2722919912870339</v>
+        <v>0.8677576926587847</v>
       </c>
       <c r="D23">
-        <v>0.2104915491313903</v>
+        <v>0.1753650634410917</v>
       </c>
       <c r="E23">
-        <v>0.1581997233864136</v>
+        <v>0.1082188195022731</v>
       </c>
       <c r="F23">
-        <v>1.227467002841905</v>
+        <v>1.000661138110445</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5110933687503731</v>
+        <v>0.2516006396590065</v>
       </c>
       <c r="J23">
-        <v>0.1600594885475246</v>
+        <v>0.0924546288351209</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4440493392536595</v>
+        <v>1.000503636548501</v>
       </c>
       <c r="N23">
-        <v>1.144369217799529</v>
+        <v>0.623796295168205</v>
       </c>
       <c r="O23">
-        <v>2.800877649405749</v>
+        <v>2.275401443583974</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9828753726382615</v>
+        <v>2.839567072363309</v>
       </c>
       <c r="C24">
-        <v>0.2352053450990184</v>
+        <v>0.7431873471318227</v>
       </c>
       <c r="D24">
-        <v>0.206523446271234</v>
+        <v>0.1558634864751411</v>
       </c>
       <c r="E24">
-        <v>0.1570171678661652</v>
+        <v>0.09824079054422086</v>
       </c>
       <c r="F24">
-        <v>1.216709867295975</v>
+        <v>0.8985856615063028</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5168096640494326</v>
+        <v>0.24237311652168</v>
       </c>
       <c r="J24">
-        <v>0.1602208277230659</v>
+        <v>0.08591116535575338</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.404054419903737</v>
+        <v>0.8559352702731147</v>
       </c>
       <c r="N24">
-        <v>1.156971829736904</v>
+        <v>0.6484199872110352</v>
       </c>
       <c r="O24">
-        <v>2.781661724716372</v>
+        <v>2.046404871292424</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8294331560998671</v>
+        <v>2.326071694618349</v>
       </c>
       <c r="C25">
-        <v>0.1951049809730421</v>
+        <v>0.6097707270361639</v>
       </c>
       <c r="D25">
-        <v>0.2024950905911851</v>
+        <v>0.1353515900163842</v>
       </c>
       <c r="E25">
-        <v>0.1559886840671041</v>
+        <v>0.08803936345599084</v>
       </c>
       <c r="F25">
-        <v>1.207813176399512</v>
+        <v>0.7963279927531204</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.524250798995098</v>
+        <v>0.2359385447520346</v>
       </c>
       <c r="J25">
-        <v>0.1606922174406762</v>
+        <v>0.07958267864025004</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.361252026773208</v>
+        <v>0.7018094339303005</v>
       </c>
       <c r="N25">
-        <v>1.172285828940957</v>
+        <v>0.6794548924726911</v>
       </c>
       <c r="O25">
-        <v>2.767695776451205</v>
+        <v>1.820117789708746</v>
       </c>
     </row>
   </sheetData>
